--- a/src/ACAT/assignments/FA24/COMP-103_FA24_01_assignments.xlsx
+++ b/src/ACAT/assignments/FA24/COMP-103_FA24_01_assignments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghava_Master's\Professional Seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siric\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B390097-0ACD-4BDB-A3DD-206EA7C019A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29A516-7F16-4BCB-9675-B5A5AB4CF467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMP-103 Coding Adventures II" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Understand and implement advanced programming concepts building upon the foundational knowledge acquired in Programming I.</t>
   </si>
@@ -48,13 +48,22 @@
   </si>
   <si>
     <t>Exams Final Score</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
+  </si>
+  <si>
+    <t>Course Outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +94,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +124,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -121,6 +136,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,33 +269,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.73046875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.3984375" style="2"/>
+    <col min="1" max="1" width="69.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -285,51 +304,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -347,7 +377,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.85" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
